--- a/results/result_processTime_waitTasks/RandomRequestNumberclientv5#loops4#requests_batch200#Fri-Jul-26-18-36-52-2024processTime#waitTasks_v4result.xlsx
+++ b/results/result_processTime_waitTasks/RandomRequestNumberclientv5#loops4#requests_batch200#Fri-Jul-26-18-36-52-2024processTime#waitTasks_v4result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\training\results\result_processTime_waitTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8D933-33A7-4A63-9640-59B059AA21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5830E7-CA62-4601-89BA-CF5724EA082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C68" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1917,7 +1917,7 @@
         <v>130.00947570800781</v>
       </c>
       <c r="D64">
-        <v>26.00695061683658</v>
+        <v>26.006950616836601</v>
       </c>
       <c r="E64" t="s">
         <v>61</v>
@@ -2322,7 +2322,7 @@
         <v>0.27939414978027338</v>
       </c>
       <c r="C88">
-        <v>21.15522575378418</v>
+        <v>21.155225753784201</v>
       </c>
       <c r="D88">
         <v>20.87583160400391</v>
